--- a/tables/Info_other_molecules.xlsx
+++ b/tables/Info_other_molecules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femke\Documents\Sterrenkunde bestanden\Master\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femke\Documents\GitHub\master_project_2\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40359BD1-AA17-4AFA-B38C-6EC9891AF70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E7112-88DE-4689-A7D3-EEDF9E903692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A5650AF-FBB8-4D14-A5E1-85E346A6EB91}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Molecule</t>
   </si>
@@ -170,6 +170,93 @@
   </si>
   <si>
     <t>There really is none</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>J= 3-2</t>
+  </si>
+  <si>
+    <t>J = 4-3</t>
+  </si>
+  <si>
+    <t>J= 5-4</t>
+  </si>
+  <si>
+    <t>J = 6-5</t>
+  </si>
+  <si>
+    <t>band 6 but not in alma-imf</t>
+  </si>
+  <si>
+    <t>band 5</t>
+  </si>
+  <si>
+    <t>band 4</t>
+  </si>
+  <si>
+    <t>band 7</t>
+  </si>
+  <si>
+    <t>J=7-6</t>
+  </si>
+  <si>
+    <t>13CS</t>
+  </si>
+  <si>
+    <t>We have no obs of band 5</t>
+  </si>
+  <si>
+    <t>We have no obs of band 4</t>
+  </si>
+  <si>
+    <t>But not in alma-imf</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>6(5)-5(4)</t>
+  </si>
+  <si>
+    <t>alma-imf</t>
+  </si>
+  <si>
+    <t>9(8)-8(7)</t>
+  </si>
+  <si>
+    <t>Band 3 but not in alma-imf</t>
+  </si>
+  <si>
+    <t>J = 2-1</t>
+  </si>
+  <si>
+    <t>Not in alma-imf</t>
+  </si>
+  <si>
+    <t>Not covered</t>
+  </si>
+  <si>
+    <t>band 3</t>
+  </si>
+  <si>
+    <t>band 6</t>
+  </si>
+  <si>
+    <t>J=5-4</t>
+  </si>
+  <si>
+    <t>J = 7-6</t>
+  </si>
+  <si>
+    <t>J = 8-7</t>
+  </si>
+  <si>
+    <t>spw6</t>
+  </si>
+  <si>
+    <t>spw1</t>
   </si>
 </sst>
 </file>
@@ -204,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,12 +323,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -550,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE5B1CF-C721-4DEE-8C54-D92F648D7DCF}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,6 +884,272 @@
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5">
+        <v>97.98</v>
+      </c>
+      <c r="G19" s="5">
+        <v>-4.7699999999999996</v>
+      </c>
+      <c r="H19" s="5">
+        <v>7.05</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>146.96899999999999</v>
+      </c>
+      <c r="G20">
+        <v>-4.28</v>
+      </c>
+      <c r="H20">
+        <v>14.1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>195.95400000000001</v>
+      </c>
+      <c r="G21">
+        <v>-3.827</v>
+      </c>
+      <c r="H21">
+        <v>23.5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>244.93549999999999</v>
+      </c>
+      <c r="G22">
+        <v>-3.5</v>
+      </c>
+      <c r="H22">
+        <v>35.265999999999998</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>293.91199999999998</v>
+      </c>
+      <c r="G23">
+        <v>-3.2</v>
+      </c>
+      <c r="H23">
+        <v>49.37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>342.88200000000001</v>
+      </c>
+      <c r="G24">
+        <v>-3.077</v>
+      </c>
+      <c r="H24">
+        <v>65.826999999999998</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>92.494</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="H28">
+        <v>6.6580000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>231.22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <v>-3.6</v>
+      </c>
+      <c r="H29">
+        <v>33.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>277.45499999999998</v>
+      </c>
+      <c r="G30">
+        <v>-3.35</v>
+      </c>
+      <c r="H30">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>323.68</v>
+      </c>
+      <c r="G31">
+        <v>-3.15</v>
+      </c>
+      <c r="H31">
+        <v>62.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>369.90800000000002</v>
+      </c>
+      <c r="G32">
+        <v>-2.9</v>
+      </c>
+      <c r="H32">
+        <v>79.89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>219.94900000000001</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>-3.87</v>
+      </c>
+      <c r="H36">
+        <v>34.979999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>346.52800000000002</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>-3.26</v>
+      </c>
+      <c r="H37">
+        <v>78.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
